--- a/biology/Biochimie/Spectrophotométrie/Spectrophotométrie.xlsx
+++ b/biology/Biochimie/Spectrophotométrie/Spectrophotométrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A9trie</t>
+          <t>Spectrophotométrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La spectrophotométrie est le domaine qui étudie la mesure de l'énergie transportée par les rayonnements électromagnétiques dans le domaine de la lumière visible[1]. La spectrométrie, ou spectroscopie, est une méthode analytique quantitative et qualitative qui consiste à mesurer l'absorbance ou la densité optique d'une substance chimique donnée, généralement en solution. Plus l'échantillon est concentré, plus il absorbe la lumière dans les limites de proportionnalité énoncées par la loi de Beer-Lambert.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La spectrophotométrie est le domaine qui étudie la mesure de l'énergie transportée par les rayonnements électromagnétiques dans le domaine de la lumière visible. La spectrométrie, ou spectroscopie, est une méthode analytique quantitative et qualitative qui consiste à mesurer l'absorbance ou la densité optique d'une substance chimique donnée, généralement en solution. Plus l'échantillon est concentré, plus il absorbe la lumière dans les limites de proportionnalité énoncées par la loi de Beer-Lambert.
 La densité optique des échantillons est déterminée par un spectromètre préalablement étalonné sur la longueur d'onde d'absorption de la substance à étudier.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A9trie</t>
+          <t>Spectrophotométrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pour plus de détails, voir l'article Loi de Beer-Lambert.
 Lorsqu’une lumière d’intensité 
@@ -634,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A9trie</t>
+          <t>Spectrophotométrie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -652,7 +666,9 @@
           <t>Domaine UV-visible de la spectrométrie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour plus de détails, voir l'article Spectroscopie
 Un soluté coloré ou chromophore absorbe la lumière visible (longueurs d'onde comprises entre 400 et 800 nm). Certaines solutions absorbent dans l'ultraviolet (longueurs d'onde inférieures à 380 nm), on parle alors de spectrométrie UV. Les infrarouges ne sont pas utilisés en spectrométrie car ils dépendent surtout de la température de la solution et non de sa concentration, ils sont plutôt couverts par la spectroscopie en infrarouge. La spectrophotométrie est plus spécifique que la spectroscopie qui couvre d'autres longueurs d'onde du spectre électromagnétique.
@@ -666,7 +682,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A9trie</t>
+          <t>Spectrophotométrie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -684,7 +700,9 @@
           <t>Spectromètre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour plus de détails, voir l'article Spectromètre
 Schéma de principe du spectromètre UV-visible monofaisceau
@@ -707,7 +725,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Spectrophotom%C3%A9trie</t>
+          <t>Spectrophotométrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -725,15 +743,51 @@
           <t>Limites</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs facteurs peuvent dégrader la loi de Beer-Lambert et limiter la validité de la spectrophotométrie :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs facteurs peuvent dégrader la loi de Beer-Lambert et limiter la validité de la spectrophotométrie :
 le domaine de mesure idéal est pour les valeurs de T situées entre 20 et 60 % ;
 plusieurs aberrations optiques liés à la diffusion, la réflexion et la diffraction de la lumière peuvent fausser la mesure ;
 les phénomènes de fluorescence ainsi que d'autres particularités chimiques liées aux substances absorbantes peuvent interférer ;
-plus la densité du soluté est importante, plus le faisceau de lumière incident sera réfracté avec une valeur donnée. Cette tendance est normalement infime mais devient plus prononcée avec les hautes concentrations. Ainsi, la réfraction réduit l'intensité de la lumière transmise et l'instrument indique faussement une absorbance plus élevée. Généralement, ce phénomène peut être évité en travaillant avec des concentrations inférieures à 0,01 mol.L−1.
-Importance du phénomène de diffusion
-Voir [2].
+plus la densité du soluté est importante, plus le faisceau de lumière incident sera réfracté avec une valeur donnée. Cette tendance est normalement infime mais devient plus prononcée avec les hautes concentrations. Ainsi, la réfraction réduit l'intensité de la lumière transmise et l'instrument indique faussement une absorbance plus élevée. Généralement, ce phénomène peut être évité en travaillant avec des concentrations inférieures à 0,01 mol.L−1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spectrophotométrie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spectrophotom%C3%A9trie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Limites</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Importance du phénomène de diffusion</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voir .
 Comme la loi de Beer-Lambert le stipule, le pouvoir d'un milieu à bloquer le passage de la lumière est quantifié par un coefficient d'extinction donné par l'équation :
         I
           /
@@ -818,31 +872,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Spectrophotom%C3%A9trie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Spectrophotométrie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Spectrophotom%C3%A9trie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Applications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Détermination d'une concentration inconnue
 Connaissant le spectre d'absorption d'une substance chimique, on peut mesurer, à l'une de ses longueurs d'onde 
